--- a/data/income_statement/3digits/total/421_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/421_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>421-Construction of roads and railways</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>421-Construction of roads and railways</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>10853665.6847</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>16001537.00763</v>
+        <v>16001678.77802</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18530370.40292</v>
+        <v>18629688.11418</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20196591.09883</v>
+        <v>22309014.4865</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27125480.15327999</v>
+        <v>27417869.60295</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31454325.49104</v>
+        <v>32403427.31761</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>28856862.19</v>
+        <v>31666727.35669</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>52294050.97202999</v>
+        <v>52399368.29293</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>56437455.19299999</v>
+        <v>56437455.193</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>63609510.00908</v>
+        <v>63781724.20171999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>82529465.72915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>84088294.04459</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>98481832.61499999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>9311691.0122</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>14441244.48637</v>
+        <v>14441386.25676</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17033841.39319</v>
+        <v>17116368.93045</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18140855.32268</v>
+        <v>18498270.95716</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23538083.46812</v>
+        <v>23826955.40757</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28329496.99388</v>
+        <v>29237922.13709</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>24473368.21984</v>
+        <v>27035815.74783</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>42952693.09918</v>
+        <v>43057689.31502999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>46426667.94692999</v>
+        <v>46426667.94693001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>54587523.11255001</v>
+        <v>54759132.20216</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>69853641.56037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>71460522.39629999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>81617933.082</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1414097.02371</v>
@@ -1034,37 +950,42 @@
         <v>1334421.21529</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1194142.69604</v>
+        <v>1210764.60211</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1640356.5996</v>
+        <v>3395330.2354</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2974984.16594</v>
+        <v>2975195.07601</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2644696.26334</v>
+        <v>2680382.6027</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4029511.78628</v>
+        <v>4111438.15884</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8693682.079459999</v>
+        <v>8693682.079460001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>9143980.37046</v>
+        <v>9143980.370460002</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8034360.768970001</v>
+        <v>8034460.602600001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11142172.20102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11086450.35142</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14593991.731</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>127877.64879</v>
@@ -1073,37 +994,42 @@
         <v>225871.30597</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>302386.31369</v>
+        <v>302554.58162</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>415379.17655</v>
+        <v>415413.2939400001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>612412.51922</v>
+        <v>615719.11937</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>480132.23382</v>
+        <v>485122.57782</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>353982.18388</v>
+        <v>519473.45002</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>647675.79339</v>
+        <v>647996.89844</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>866806.8756099999</v>
+        <v>866806.87561</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>987626.1275600001</v>
+        <v>988131.39696</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1533651.96776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1541321.29687</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2269907.802</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>19258.21905</v>
@@ -1112,19 +1038,19 @@
         <v>41427.81153</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>13568.81852</v>
+        <v>14481.07155</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>23042.53281</v>
+        <v>23169.8659</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>28623.67603</v>
+        <v>28635.96729</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37462.16101999999</v>
+        <v>38125.51373000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>42297.16553</v>
+        <v>49412.43301000001</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>1616760.50433</v>
@@ -1133,37 +1059,42 @@
         <v>134747.04319</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>167036.96416</v>
+        <v>167052.79516</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>404725.04927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>405277.42957</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>950004.28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9899.76802</v>
+        <v>9899.768020000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>28586.3525</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>10240.33889</v>
+        <v>11152.59192</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17971.67551</v>
+        <v>18018.87001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20030.57936</v>
+        <v>20041.40042</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>26765.47999</v>
+        <v>27428.75835</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27821.91528</v>
+        <v>31596.74478</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>1586956.83198</v>
@@ -1172,22 +1103,27 @@
         <v>99873.41006000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>120235.09821</v>
+        <v>120250.92921</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>338678.52629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>339230.4901999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>937171.576</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1528.9245</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5900.31344</v>
+        <v>5900.313440000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>1244.43786</v>
@@ -1196,13 +1132,13 @@
         <v>2026.61541</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1641.74317</v>
+        <v>1643.21337</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>6953.72063</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>10859.32478</v>
+        <v>14173.62127</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>13822.10486</v>
@@ -1211,19 +1147,24 @@
         <v>29006.75273</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>40500.43122000001</v>
+        <v>40500.43122</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>61350.06042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>61350.47681</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6163.43</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7829.526530000001</v>
+        <v>7829.52653</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>6941.14559</v>
@@ -1232,22 +1173,22 @@
         <v>2084.04177</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3044.24189</v>
+        <v>3124.38048</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>6951.3535</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3742.9604</v>
+        <v>3743.03475</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3615.92547</v>
+        <v>3642.06696</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>15981.56749</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5866.880399999999</v>
+        <v>5866.8804</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>6301.434730000001</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>4696.46256</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>6669.274</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10834407.46565</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>15960109.1961</v>
+        <v>15960250.96649</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>18516801.5844</v>
+        <v>18615207.04263</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20173548.56602</v>
+        <v>22285844.6206</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>27096856.47725</v>
+        <v>27389233.63566</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>31416863.33002</v>
+        <v>32365301.80388</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28814565.02447</v>
+        <v>31617314.92368</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>50677290.46770001</v>
+        <v>50782607.78860001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>56302708.14981001</v>
+        <v>56302708.14981</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>63442473.04492</v>
+        <v>63614671.40656</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>82124740.67988001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>83683016.61501999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>97531828.33499999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>9257754.2236</v>
@@ -1307,58 +1258,63 @@
         <v>13794053.60684</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>16015589.94104</v>
+        <v>16090820.27635</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>17709299.68441</v>
+        <v>19812410.61388</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>23757059.01195</v>
+        <v>24038318.24838</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>28422099.35255</v>
+        <v>29350022.32521</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>25251444.41145</v>
+        <v>27827878.72251</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>45607531.64949001</v>
+        <v>45710757.73379</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>51828910.78818</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>56103783.20686</v>
+        <v>56254913.58250999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>74688094.10449998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>76141211.72244</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>87847924.77</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>656758.97623</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>713274.75841</v>
+        <v>713274.7584100001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>775970.12367</v>
+        <v>775970.1236700001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>962974.3383699999</v>
+        <v>968282.1962500002</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1195123.39553</v>
+        <v>1209150.0126</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1468433.69743</v>
+        <v>1508637.98975</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1373116.56428</v>
+        <v>1529080.26511</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>2201880.22197</v>
@@ -1367,16 +1323,21 @@
         <v>2933019.93193</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3581826.14015</v>
+        <v>3583615.80796</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2621454.58202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2659791.80444</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3894832.565</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1120922.55776</v>
@@ -1385,37 +1346,42 @@
         <v>1972656.63927</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1660808.10006</v>
+        <v>1664538.32749</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1705402.35293</v>
+        <v>1709269.09986</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2465655.57593</v>
+        <v>2486678.10647</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3217476.6861</v>
+        <v>3298457.41797</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4533921.590229999</v>
+        <v>4751593.163170001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6731032.1213</v>
+        <v>6734426.44435</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>12486650.84286</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9677462.909300001</v>
+        <v>9680350.429599999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12054909.29337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12127680.58619</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>12079528.63</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>7254561.72788</v>
@@ -1424,37 +1390,42 @@
         <v>10943119.84763</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>13292415.96068</v>
+        <v>13363916.06856</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>14651498.45004</v>
+        <v>16744240.38967</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19618222.75734</v>
+        <v>19863864.3042</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>23517025.60858</v>
+        <v>24321342.30962</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>19190475.02316</v>
+        <v>21345480.17407</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>36423998.19599</v>
+        <v>36523829.95724001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>36163392.39363001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>42427628.12042</v>
+        <v>42573602.36912</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>59574131.82742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>60905331.19413</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>70604627.016</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>225510.96173</v>
@@ -1463,19 +1434,19 @@
         <v>165002.36153</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>286395.7566300001</v>
+        <v>286395.75663</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>389424.54307</v>
+        <v>390618.9281</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>478057.28315</v>
+        <v>478625.82511</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>219163.36044</v>
+        <v>221584.60787</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>153931.23378</v>
+        <v>201725.12016</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>250621.11023</v>
@@ -1484,94 +1455,109 @@
         <v>245847.61976</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>416866.03699</v>
+        <v>417344.97583</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>437598.40169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>448408.13768</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1268936.559</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1576653.24205</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2166055.58926</v>
+        <v>2166197.35965</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2501211.64336</v>
+        <v>2524386.76628</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2464248.88161</v>
+        <v>2473434.00672</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3339797.4653</v>
+        <v>3350915.38728</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2994763.97747</v>
+        <v>3015279.47867</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3563120.61302</v>
+        <v>3789436.20117</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5069758.81821</v>
+        <v>5071850.05481</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4473797.36163</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7338689.838059999</v>
+        <v>7359757.82405</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7436646.57538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7541804.89258</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9683903.564999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>541524.95097</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>595913.51264</v>
+        <v>596148.2710299999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>875115.2908900001</v>
+        <v>877631.06861</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>888289.4060900001</v>
+        <v>892511.3537100001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1118156.85246</v>
+        <v>1128021.06143</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1090081.27616</v>
+        <v>1107425.85017</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1310414.79732</v>
+        <v>1417505.40384</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2038695.44388</v>
+        <v>2042875.05959</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2138426.11416</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2466359.50692</v>
+        <v>2471407.24006</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2692178.62039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2698988.76135</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3002949.396</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>431.874</v>
@@ -1592,7 +1578,7 @@
         <v>1699.98104</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2913.092839999999</v>
+        <v>2913.09284</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2461.11441</v>
@@ -1604,13 +1590,18 @@
         <v>12336.50173</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>22168.91333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22214.21397</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>23221.419</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>49793.50216</v>
@@ -1619,115 +1610,130 @@
         <v>63113.79813</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>141249.16049</v>
+        <v>142184.06385</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>100703.22881</v>
+        <v>101092.73507</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>131991.44979</v>
+        <v>133293.06999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>125426.1763</v>
+        <v>125908.45378</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>165419.06402</v>
+        <v>168670.66599</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>192219.5331</v>
+        <v>194738.12176</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>168997.54606</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>230607.18365</v>
+        <v>230661.63069</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>278683.96035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>280325.76424</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>273012.715</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>491299.57481</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>530716.4040099999</v>
+        <v>530951.1624</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>731537.76547</v>
+        <v>733118.6398299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>784418.99936</v>
+        <v>788251.4407200001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>983575.67158</v>
+        <v>992138.26035</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>962955.11882</v>
+        <v>979817.41535</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1142082.64046</v>
+        <v>1245921.64501</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1844014.79637</v>
+        <v>1845675.82342</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1953643.70091</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2223415.82154</v>
+        <v>2228409.10764</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2391325.74671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2396448.78314</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2706715.262</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1035128.29108</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1570142.07662</v>
+        <v>1570049.08862</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1626096.35247</v>
+        <v>1646755.69767</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1575959.47552</v>
+        <v>1580922.65301</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2221640.61284</v>
+        <v>2222894.32585</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1904682.70131</v>
+        <v>1907853.6285</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2252705.8157</v>
+        <v>2371930.79733</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3031063.37433</v>
+        <v>3028974.99522</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2335371.24747</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4872330.331139999</v>
+        <v>4888350.58399</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4744467.95499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4842816.13123</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6680954.169</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1573391.99926</v>
@@ -1736,76 +1742,86 @@
         <v>2183771.77912</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2893197.84476</v>
+        <v>2916641.76954</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2497079.08117</v>
+        <v>2507454.88058</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3351365.24784</v>
+        <v>3356885.93735</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4506107.225389999</v>
+        <v>4581904.804629999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7026542.225880001</v>
+        <v>7800882.10874</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9207822.007639999</v>
+        <v>9220782.27844</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>10229018.12857</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>28448730.50444</v>
+        <v>28454664.50801</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21959281.05414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21964991.97987</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26720182.165</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>313035.81115</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>89032.59228999999</v>
+        <v>89032.59229</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>195010.07523</v>
+        <v>200320.94121</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>170521.94628</v>
+        <v>170523.23514</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>310158.24537</v>
+        <v>312232.8615999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>415554.34366</v>
+        <v>418138.52766</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>285257.82488</v>
+        <v>323100.63316</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>331993.75106</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>969236.7794199999</v>
+        <v>969236.77942</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>806730.9325799999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1898685.29631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1880900.34026</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2980258.177</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>239326.62421</v>
@@ -1814,19 +1830,19 @@
         <v>407035.93789</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>400984.01265</v>
+        <v>402318.59453</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>588631.8103400001</v>
+        <v>588631.81034</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>289191.03916</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>824918.4455499999</v>
+        <v>825411.13712</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>752852.73307</v>
+        <v>875920.20975</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1057432.23608</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2346260.3028</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1858546.634</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>176079.19804</v>
@@ -1853,40 +1874,45 @@
         <v>208720.90054</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>254734.60474</v>
+        <v>254892.24001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>329098.0117</v>
+        <v>329483.7398400001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>349702.80868</v>
+        <v>351579.1794500001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>458450.2973000001</v>
+        <v>489719.90108</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>559733.69465</v>
+        <v>604069.4785399999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>775443.6850400001</v>
+        <v>775616.6345500001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>772761.3426800001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1115892.96083</v>
+        <v>1117017.12327</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1255900.60874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1268743.54282</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1207706.47</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>832.4570500000002</v>
+        <v>832.4570500000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>652.15678</v>
@@ -1898,16 +1924,16 @@
         <v>103.62557</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>632.2581600000001</v>
+        <v>635.2965300000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1225.8513</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2374.787740000001</v>
+        <v>2374.78774</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>62282.33744</v>
+        <v>62351.28215</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>835.53381</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>250.89574</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>6720.655</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1079.89474</v>
@@ -1943,7 +1974,7 @@
         <v>14463.31055</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7526.469819999999</v>
+        <v>7962.195110000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2673.38313</v>
@@ -1952,55 +1983,65 @@
         <v>30485.15689</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>108075.78373</v>
+        <v>108105.87037</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>64136.46541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>64198.31453</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>46356.266</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>62069.80018999999</v>
+        <v>62069.80019</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>80064.35928999999</v>
+        <v>80064.35929000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>202427.75992</v>
+        <v>202432.43751</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>303101.46508</v>
+        <v>303101.8760500001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>158419.58881</v>
+        <v>158488.92949</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>275052.99556</v>
+        <v>275981.05107</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>155479.55767</v>
+        <v>156246.95781</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>213147.39487</v>
+        <v>213155.47421</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>619422.00927</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>297213.2331199999</v>
+        <v>297292.9727</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1796726.52114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1796728.80689</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1182980.057</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>605507.2884</v>
@@ -2009,37 +2050,42 @@
         <v>643079.40099</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1196693.35158</v>
+        <v>1213329.51562</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>618435.08499</v>
+        <v>628022.36904</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1538661.34208</v>
+        <v>1539614.85715</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2104096.81104</v>
+        <v>2121175.13203</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4696746.07718</v>
+        <v>5237197.89982</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5537605.47187</v>
+        <v>5544336.276649999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6096158.734879999</v>
+        <v>6096158.73488</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23528258.76218</v>
+        <v>23533183.17398001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11256674.65778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11267031.44378</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18175221.941</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>811.7677199999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>572.66788</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6486.31</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>22833.96371</v>
@@ -2087,13 +2138,13 @@
         <v>225260.73677</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>344833.1138700001</v>
+        <v>344833.1138699999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>36359.37003</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>79472.16950999999</v>
+        <v>79472.16951000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>4211.199410000001</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>19649.73287</v>
+        <v>20210.66557</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>1614.62474</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>32.95865</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>43.077</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>151815.19405</v>
@@ -2126,37 +2182,42 @@
         <v>527083.1161700001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>294391.42849</v>
+        <v>294391.42851</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>449292.22998</v>
+        <v>449693.31737</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>623612.87342</v>
+        <v>624156.6818100001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>408101.63614</v>
+        <v>431546.35953</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>566407.34219</v>
+        <v>593846.20813</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1207372.84939</v>
+        <v>1212791.40915</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>893054.93247</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1439151.02848</v>
+        <v>1438926.63159</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3340040.679690001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3340272.70652</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1255862.578</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>717855.4777899998</v>
@@ -2165,40 +2226,45 @@
         <v>1069939.61949</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1466810.57618</v>
+        <v>1490781.92984</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>888985.4954200001</v>
+        <v>904328.12673</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2036928.28423</v>
+        <v>2037762.11583</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2430924.40515</v>
+        <v>2467070.82956</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5003799.80685</v>
+        <v>5674176.417179999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6602697.85665</v>
+        <v>6628522.710440001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6733814.096220001</v>
+        <v>6733814.09622</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>26463399.68889</v>
+        <v>26473184.52372</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15479134.44207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15522049.77886</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>20778479.7</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>922.8993399999999</v>
+        <v>922.8993400000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>830.93207</v>
@@ -2213,10 +2279,10 @@
         <v>917.2264699999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>891.5773300000001</v>
+        <v>903.0561000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>938.41401</v>
+        <v>942.0269199999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>671.9533399999999</v>
@@ -2228,13 +2294,18 @@
         <v>2290.79095</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1548.48617</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1549.09142</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8684.559999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4650.83704</v>
@@ -2243,7 +2314,7 @@
         <v>18085.03449</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9569.12329</v>
+        <v>9931.43268</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>5138.88293</v>
@@ -2252,10 +2323,10 @@
         <v>27952.30616</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>38238.15518000001</v>
+        <v>38238.15518</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>64538.7048</v>
+        <v>64666.56229</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>33456.93514</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>19365.63142</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>18053.076</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>4211.608810000001</v>
+        <v>4211.60881</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>3601.20729</v>
@@ -2291,16 +2367,16 @@
         <v>175482.22468</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>14593.68228</v>
+        <v>16166.13051</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>214483.06033</v>
+        <v>216639.33186</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>155053.46873</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>88857.85307</v>
+        <v>88857.85307000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>272657.27446</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>168903.82993</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>407645.226</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>534819.1738</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>663846.6382800001</v>
+        <v>663846.63828</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>922393.4777500001</v>
+        <v>940313.8891199998</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>606057.03065</v>
+        <v>617880.70825</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1392694.01833</v>
+        <v>1393494.05427</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2160857.31896</v>
+        <v>2171063.46227</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4347445.290750001</v>
+        <v>4986284.622459999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5881843.770719999</v>
+        <v>5888456.192740001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6019586.331910001</v>
+        <v>6019586.33191</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>24825237.59425</v>
+        <v>24833600.97699</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10979844.42518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10999937.55796</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>19415290.329</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>450.9007800000001</v>
@@ -2372,7 +2458,7 @@
         <v>776.00103</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>13.63168</v>
+        <v>22.6381</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>8.27392</v>
@@ -2381,16 +2467,21 @@
         <v>2.07768</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>504.71768</v>
+        <v>514.68433</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1667.83992</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>5949.94</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>22496.02343</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>150304.03459</v>
@@ -2438,37 +2534,42 @@
         <v>159862.18876</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>159799.8852</v>
+        <v>165488.5181</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>250629.62387</v>
+        <v>254148.57758</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>370391.8425800001</v>
+        <v>370425.63824</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>195324.37336</v>
+        <v>219680.72746</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>375917.02255</v>
+        <v>405157.55282</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>512037.2225499999</v>
+        <v>531249.65432</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>609192.6225500001</v>
+        <v>609192.62255</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1310158.27886</v>
+        <v>1311569.7643</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4307804.22945</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4330625.82821</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>922856.569</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>226941.71287</v>
@@ -2477,37 +2578,42 @@
         <v>147696.67131</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>492608.45028</v>
+        <v>494853.96002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>294726.52934</v>
+        <v>299529.19455</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>554580.36975</v>
+        <v>558061.1770500001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>605297.78892</v>
+        <v>622307.6494300001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1032036.3606</v>
+        <v>1170526.02915</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1021604.08</v>
+        <v>1023911.81476</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1080094.29011</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2759203.596189999</v>
+        <v>2764721.32013</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2400150.68092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2403458.221609999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3159563.886</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>160816.0082</v>
@@ -2516,37 +2622,42 @@
         <v>143351.3933</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>358541.3616</v>
+        <v>360786.87134</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>252644.49543</v>
+        <v>257447.16064</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>520811.97743</v>
+        <v>524289.83542</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>529981.8996199999</v>
+        <v>546991.76013</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>684553.20393</v>
+        <v>820764.1863099999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>871230.4642500001</v>
+        <v>873538.19901</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>949877.4459899999</v>
+        <v>949877.44599</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2508106.91774</v>
+        <v>2513624.64168</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2036307.7154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2039519.38855</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3070728.21</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>66125.70467000001</v>
@@ -2561,13 +2672,13 @@
         <v>42082.03391</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>33768.39232</v>
+        <v>33771.34163</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>75315.8893</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>347483.1566699999</v>
+        <v>349761.8428400001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>150373.61575</v>
@@ -2579,52 +2690,62 @@
         <v>251096.67845</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>363842.96552</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>363938.8330599999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>88835.67600000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1663723.09968</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2536277.56494</v>
+        <v>2536184.576940001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2559875.17077</v>
+        <v>2577761.57735</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2889326.531930001</v>
+        <v>2884520.21231</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2981497.2067</v>
+        <v>2983956.97032</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3374567.73263</v>
+        <v>3400379.95414</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3243411.87413</v>
+        <v>3328110.45974</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4614583.445320001</v>
+        <v>4597322.74846</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4750480.98971</v>
+        <v>4750480.989710001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4098457.5505</v>
+        <v>4105109.24815</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8824463.88614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8882300.11063</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9463092.748</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>256851.58436</v>
@@ -2633,37 +2754,42 @@
         <v>191541.76035</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>269203.66389</v>
+        <v>271692.3785399999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>321834.19256</v>
+        <v>328243.09507</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>375985.62488</v>
+        <v>378936.72937</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>604106.9741900001</v>
+        <v>630617.96369</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>630831.1902300001</v>
+        <v>711016.0852199999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2161722.23648</v>
+        <v>2161972.87186</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1116383.74279</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3220394.86868</v>
+        <v>3222604.85575</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4843807.71308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4843108.46782</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2299522.035</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>49242.92629</v>
@@ -2672,37 +2798,42 @@
         <v>50522.29229</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>44434.85088000001</v>
+        <v>45049.63979</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>81635.70531</v>
+        <v>81652.57317</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>58371.76334</v>
+        <v>59090.40335</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>33314.76891</v>
+        <v>48652.24679999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>46207.47444999999</v>
+        <v>50758.49466</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>77454.66826999999</v>
+        <v>77455.49524999998</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>87756.10147999998</v>
+        <v>87756.10148</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>124593.45598</v>
+        <v>126000.27488</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>134776.85009</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>128980.655</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>207608.65807</v>
@@ -2711,76 +2842,86 @@
         <v>141019.46806</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>224768.81301</v>
+        <v>226642.73875</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>240198.48725</v>
+        <v>246590.5219</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>317613.86154</v>
+        <v>319846.32602</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>570792.20528</v>
+        <v>581965.71689</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>584623.7157800001</v>
+        <v>660257.5905599999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2084267.56821</v>
+        <v>2084517.37661</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1028627.64131</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3095801.4127</v>
+        <v>3096604.58087</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4709030.86299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4708331.617729999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2170541.38</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>233764.74754</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>268842.657</v>
+        <v>268916.15723</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>916872.8179500001</v>
+        <v>932702.5957899999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>416123.3316700001</v>
+        <v>420714.49677</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>483788.45851</v>
+        <v>487996.3403000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>564366.02773</v>
+        <v>706846.3712399999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>549540.1313</v>
+        <v>607086.3078899999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1502253.69302</v>
+        <v>1502376.58599</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1052900.68838</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1370419.19376</v>
+        <v>1374158.8775</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1740477.81884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1746805.10615</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1900710.616</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11292.18465</v>
@@ -2792,34 +2933,39 @@
         <v>16995.56425</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>14816.1374</v>
+        <v>15218.9121</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>25523.97758</v>
+        <v>26624.58407</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>30733.11362</v>
+        <v>30739.61834</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>29126.36469</v>
+        <v>29364.56168</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>26835.04071</v>
+        <v>26844.01445</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>54071.61985</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>24635.47928</v>
+        <v>24648.63861</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>42241.68819</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>42261.88597</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>47871.967</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>52463.04861999999</v>
@@ -2828,115 +2974,130 @@
         <v>68799.15562000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>131132.11969</v>
+        <v>131135.60611</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>92199.98298</v>
+        <v>93326.90811999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>59405.36217</v>
+        <v>59781.05437999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>60387.13136000001</v>
+        <v>193741.74858</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>115420.22258</v>
+        <v>134541.09453</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>121634.48631</v>
+        <v>121635.57899</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>129813.98942</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>161456.52109</v>
+        <v>162985.29139</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>181560.58188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>181553.03707</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>271426.81</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>170009.51427</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>181470.02749</v>
+        <v>181543.52772</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>768745.1340100002</v>
+        <v>784571.4254300001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>309107.2112899999</v>
+        <v>312168.67655</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>398859.11876</v>
+        <v>401590.70185</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>473245.78275</v>
+        <v>482365.00432</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>404993.54403</v>
+        <v>443180.65168</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1353784.166</v>
+        <v>1353896.99255</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>869015.0791099999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1184327.19339</v>
+        <v>1186524.9475</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1516675.54877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1522990.18311</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1581411.839</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1686809.9365</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2458976.66829</v>
+        <v>2458810.18006</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1912206.01671</v>
+        <v>1916751.3601</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2795037.39282</v>
+        <v>2792048.81061</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2873694.37307</v>
+        <v>2874897.35939</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3414308.67909</v>
+        <v>3324151.546589999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3324702.93306</v>
+        <v>3432040.23707</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5274051.988779998</v>
+        <v>5256919.03433</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>4813964.04412</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5948433.22542</v>
+        <v>5953555.226400001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11927793.78038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11978603.4723</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>9861904.166999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>158425.18193</v>
@@ -2948,70 +3109,78 @@
         <v>316706.71075</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>397195.86274</v>
+        <v>397679.38096</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>428772.37652</v>
+        <v>430178.36073</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>416538.11111</v>
+        <v>420258.64514</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>469765.8249600001</v>
+        <v>478348.10834</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>749650.9708600001</v>
+        <v>749807.0536600001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>616304.2120299999</v>
+        <v>616304.2120300001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>869133.24532</v>
+        <v>870620.1010700001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1304670.80248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1325882.85589</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1281491.086</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1528384.75457</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2111146.06622</v>
+        <v>2110979.57799</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1595499.30596</v>
+        <v>1600044.64935</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2397841.53008</v>
+        <v>2394369.42965</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2444921.99655</v>
+        <v>2444718.99866</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2997770.56798</v>
+        <v>2903892.90145</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2854937.1081</v>
+        <v>2953692.12873</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4524401.01792</v>
+        <v>4507111.98067</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>4197659.83209</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5079299.9801</v>
+        <v>5082935.12533</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>10623122.9779</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10652720.61641</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8580413.081</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1745</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2297</v>
+        <v>2307</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2453</v>
+        <v>2473</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2526</v>
+        <v>2570</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2578</v>
+        <v>2701</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2849</v>
+        <v>2865</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3251</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3361</v>
+        <v>3493</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3511</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>